--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44053</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44371</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44645</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44964</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44509</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>44873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44979</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43326</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43391</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43398</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43426</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43432</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43433</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43452</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43453</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43455</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43488</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43488</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43488</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43495</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43517</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43522</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43523</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43524</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43544</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43544</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>43544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>43551</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>43557</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>43563</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>43565</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>43580</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43584</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43587</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43595</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43626</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43641</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43643</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43644</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43649</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43662</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43662</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43662</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43663</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43703</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43742</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43754</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43754</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43868</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43885</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43885</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43893</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43903</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43907</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43907</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43917</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43928</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43928</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43957</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43959</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43966</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43977</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43985</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43994</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>44005</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>44012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>44025</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>44037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>44039</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44041</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44112</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44112</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>44130</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44137</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>44138</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>44154</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44161</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44175</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44186</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44186</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44200</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44217</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44224</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44225</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44225</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44250</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44251</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44279</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44279</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44279</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44285</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44355</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44364</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44378</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>44383</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>44390</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44390</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44390</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>44392</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44393</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44425</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44425</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44427</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44461</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44462</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44467</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44482</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44487</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>44502</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>44502</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44509</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>44510</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>44537</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>44539</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44543</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>44578</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44613</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>44613</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44617</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44645</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44645</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44649</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44693</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44726</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44740</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44748</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44768</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44783</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44783</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44819</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44831</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44841</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44869</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44869</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44874</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44936</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44942</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44970</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44970</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44973</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44979</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44981</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44981</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44981</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44981</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44992</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44992</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44994</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44994</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44997</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45008</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45014</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45035</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45036</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45043</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45043</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45062</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>45062</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>45062</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>45062</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>45063</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>45065</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>45078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>45078</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>45091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>45091</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>45096</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>45097</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>45099</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>45103</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>45103</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>45103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>45112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>45113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>45113</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>45113</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>45119</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>45131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>45134</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>45149</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>45149</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>45160</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>45161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44053</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44371</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44645</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44964</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44509</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>44873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44979</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43326</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43391</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43398</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43426</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43432</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43433</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43452</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43453</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43455</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43488</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43488</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43488</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43495</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43517</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43522</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43523</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43524</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43544</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43544</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>43544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>43551</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>43557</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>43563</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>43565</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>43580</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43584</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43587</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43595</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43626</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43641</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43643</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43644</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43649</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43662</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43662</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43662</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43663</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43703</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43742</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43754</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43754</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43868</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43885</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43885</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43893</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43903</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43907</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43907</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43917</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43928</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43928</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43957</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43959</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43966</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43977</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43985</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43994</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>44005</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>44012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>44025</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>44037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>44039</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44041</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44112</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44112</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>44130</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44137</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>44138</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>44154</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44161</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44175</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44186</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44186</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44200</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44217</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44224</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44225</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44225</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44250</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44251</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44279</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44279</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44279</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44285</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44355</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44364</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44378</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>44383</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>44390</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44390</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44390</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>44392</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44393</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44425</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44425</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44427</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44461</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44462</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44467</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44482</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44487</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>44502</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>44502</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44509</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>44510</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>44537</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>44539</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44543</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>44578</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44613</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>44613</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44617</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44645</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44645</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44649</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44693</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44726</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44740</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44748</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44768</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44783</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44783</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44819</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44831</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44841</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44869</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44869</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44874</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44936</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44942</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44970</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44970</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44973</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44979</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44981</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44981</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44981</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44981</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44992</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44992</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44994</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44994</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44997</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45008</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45014</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45035</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45036</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45043</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45043</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45062</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>45062</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>45062</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>45062</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>45063</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>45065</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>45078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>45078</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>45091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>45091</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>45096</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>45097</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>45099</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>45103</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>45103</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>45103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>45112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>45113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>45113</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>45113</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>45119</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>45131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>45134</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>45149</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>45149</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>45160</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>45161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44053</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44371</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44645</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44964</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44509</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>44873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44979</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43326</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43391</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43398</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43426</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43432</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43433</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43452</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43453</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43455</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43488</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43488</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43488</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43495</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43517</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43522</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43523</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43524</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43544</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43544</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>43544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>43551</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>43557</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>43563</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>43565</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>43580</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43584</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43587</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43595</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43626</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43641</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43643</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43644</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43649</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43662</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43662</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43662</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43663</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43703</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43742</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43754</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43754</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43868</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43885</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43885</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43893</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43903</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43907</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43907</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43917</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43928</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43928</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43957</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43959</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43966</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43977</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43985</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43994</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>44005</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>44012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>44025</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>44037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>44039</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44041</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44112</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44112</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>44130</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44137</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>44138</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>44154</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44161</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44175</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44186</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44186</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44200</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44217</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44224</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44225</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44225</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44250</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44251</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44279</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44279</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44279</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44285</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44355</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44364</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44378</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>44383</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>44390</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44390</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44390</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>44392</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44393</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44425</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44425</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44427</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44461</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44462</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44467</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44482</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44487</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>44502</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>44502</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44509</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>44510</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>44537</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>44539</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44543</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>44578</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44613</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>44613</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44617</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44645</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44645</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44649</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44693</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44726</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44740</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44748</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44768</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44783</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44783</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44819</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44831</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44841</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44869</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44869</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44874</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44936</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44942</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44970</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44970</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44973</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44979</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44981</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44981</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44981</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44981</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44992</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44992</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44994</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44994</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44997</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45008</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45014</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45035</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45036</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45043</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45043</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45062</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>45062</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>45062</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>45062</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>45063</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>45065</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>45078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>45078</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>45091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>45091</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>45096</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>45097</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>45099</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>45103</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>45103</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>45103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>45112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>45113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>45113</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>45113</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>45119</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>45131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>45134</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>45149</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>45149</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>45160</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>45161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44053</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44371</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44645</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44964</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44509</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>44873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44979</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43326</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43391</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43398</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43426</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43432</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43433</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43452</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43453</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43455</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43488</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43488</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43488</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43495</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43517</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43522</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43523</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43524</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43544</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43544</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>43544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>43551</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>43557</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>43563</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>43565</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>43580</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43584</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43587</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43595</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43626</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43641</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43643</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43644</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43649</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43662</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43662</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43662</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43663</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43703</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43742</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43754</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43754</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43868</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43885</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43885</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43893</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43903</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43907</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43907</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43917</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43928</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43928</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43957</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43959</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43966</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43977</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43985</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43994</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>44005</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>44012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>44025</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>44037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>44039</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44041</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44112</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44112</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>44130</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44137</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>44138</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>44154</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44161</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44175</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44186</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44186</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44200</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44217</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44224</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44225</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44225</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44250</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44251</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44279</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44279</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44279</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44285</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44355</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44364</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44378</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>44383</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>44390</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44390</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44390</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>44392</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44393</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44425</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44425</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44427</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44461</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44462</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44467</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44482</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44487</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>44502</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>44502</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44509</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>44510</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>44537</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>44539</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44543</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>44578</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44613</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>44613</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44617</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44645</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44645</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44649</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44693</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44726</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44740</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44748</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44768</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44783</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44783</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44819</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44831</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44841</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44869</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44869</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44874</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44936</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44942</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44970</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44970</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44973</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44979</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44981</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44981</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44981</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44981</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44992</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44992</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44994</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44994</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44997</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45008</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45014</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45035</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45036</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45043</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45043</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45062</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>45062</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>45062</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>45062</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>45063</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>45065</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>45078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>45078</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>45091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>45091</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>45096</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>45097</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>45099</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>45103</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>45103</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>45103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>45112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>45113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>45113</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>45113</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>45119</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>45131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>45134</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>45149</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>45149</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>45160</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>45161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44053</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44371</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44645</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44964</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44509</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>44873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44979</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43326</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43391</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43398</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43426</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43432</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43433</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43452</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43453</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43455</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43488</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43488</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43488</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43495</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43517</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43522</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43523</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43524</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43544</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43544</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>43544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>43551</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>43557</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>43563</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>43565</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>43580</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43584</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43587</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43595</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43626</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43641</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43643</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43644</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43649</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43662</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43662</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43662</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43663</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43703</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43742</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43754</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43754</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43868</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43885</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43885</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43893</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43903</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43907</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43907</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43917</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43928</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43928</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43957</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43959</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43966</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43977</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43985</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43994</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>44005</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>44012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>44025</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>44037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>44039</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44041</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44112</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44112</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>44130</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44137</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>44138</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>44154</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44161</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44175</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44186</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44186</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44200</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44217</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44224</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44225</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44225</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44250</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44251</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44279</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44279</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44279</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44285</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44355</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44364</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44378</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>44383</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>44390</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44390</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44390</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>44392</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44393</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44425</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44425</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44427</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44461</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44462</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44467</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44482</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44487</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>44502</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>44502</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44509</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>44510</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>44537</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>44539</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44543</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>44578</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44613</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>44613</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44617</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44645</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44645</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44649</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44693</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44726</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44740</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44748</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44768</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44783</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44783</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44819</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44831</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44841</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44869</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44869</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44874</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44936</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44942</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44970</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44970</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44973</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44979</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44981</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44981</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44981</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44981</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44992</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44992</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44994</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44994</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44997</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45008</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45014</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45035</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45036</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45043</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45043</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45062</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>45062</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>45062</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>45062</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>45063</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>45065</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>45078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>45078</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>45091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>45091</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>45096</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>45097</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>45099</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>45103</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>45103</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>45103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>45112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>45113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>45113</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>45113</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>45119</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>45131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>45134</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>45149</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>45149</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>45160</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>45161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44053</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44371</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44645</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44964</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44509</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>44873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44979</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43326</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43391</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43398</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43426</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43432</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43433</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43452</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43453</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43455</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43488</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43488</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43488</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43495</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43517</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43522</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43523</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43524</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43544</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43544</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>43544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>43551</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>43557</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>43563</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>43565</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>43580</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43584</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43587</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43595</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43626</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43641</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43643</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43644</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43649</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43662</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43662</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43662</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43663</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43703</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43742</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43754</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43754</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43868</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43885</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43885</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43893</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43903</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43907</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43907</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43917</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43928</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43928</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43957</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43959</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43966</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43977</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43985</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43994</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>44005</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>44012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>44025</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>44037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>44039</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44041</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44112</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44112</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>44130</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44137</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>44138</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>44154</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44161</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44175</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44186</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44186</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44200</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44217</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44224</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44225</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44225</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44250</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44251</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44279</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44279</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44279</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44285</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44355</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44364</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44378</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>44383</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>44390</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44390</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44390</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>44392</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44393</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44425</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44425</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44427</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44461</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44462</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44467</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44482</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44487</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>44502</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>44502</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44509</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>44510</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>44537</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>44539</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44543</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>44578</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44613</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>44613</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44617</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44645</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44645</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44649</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44693</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44726</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44740</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44748</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44768</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44783</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44783</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44819</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44831</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44841</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44869</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44869</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44874</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44936</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44942</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44970</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44970</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44973</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44979</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44981</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44981</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44981</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44981</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44992</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44992</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44994</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44994</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44997</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45008</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45014</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45035</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45036</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45043</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45043</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45062</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>45062</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>45062</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>45062</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>45063</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>45065</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>45078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>45078</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>45091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>45091</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>45096</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>45097</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>45099</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>45103</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>45103</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>45103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>45112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>45113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>45113</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>45113</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>45119</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>45131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>45134</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>45149</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>45149</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>45160</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>45161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44053</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44371</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44645</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44964</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44509</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>44873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44979</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43326</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43391</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43398</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43426</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43432</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43433</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43452</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43453</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43455</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43488</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43488</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43488</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43495</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43517</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43522</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43523</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43524</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43544</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43544</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>43544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>43551</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>43557</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>43563</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>43565</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>43580</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43584</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43587</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43595</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43626</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43641</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43643</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43644</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43649</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43662</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43662</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43662</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43663</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43703</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43742</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43754</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43754</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43868</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43885</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43885</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43893</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43903</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43907</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43907</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43917</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43928</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43928</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43957</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43959</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43966</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43977</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43985</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43994</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>44005</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>44012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>44025</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>44037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>44039</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44041</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44112</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44112</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>44130</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44137</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>44138</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>44154</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44161</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44175</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44186</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44186</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44200</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44217</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44224</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44225</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44225</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44250</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44251</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44279</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44279</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44279</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44285</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44355</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44364</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44378</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>44383</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>44390</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44390</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44390</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>44392</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44393</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44425</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44425</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44427</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44461</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44462</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44467</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44482</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44487</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>44502</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>44502</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44509</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>44510</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>44537</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>44539</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44543</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>44578</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44613</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>44613</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44617</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44645</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44645</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44649</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44693</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44726</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44740</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44748</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44768</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44783</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44783</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44819</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44831</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44841</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44869</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44869</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44874</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44936</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44942</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44970</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44970</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44973</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44979</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44981</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44981</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44981</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44981</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44992</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44992</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44994</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44994</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44997</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45008</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45014</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45035</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45036</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45043</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45043</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45062</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>45062</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>45062</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>45062</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>45063</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>45065</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>45078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>45078</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>45091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>45091</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>45096</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>45097</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>45099</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>45103</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>45103</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>45103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>45112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>45113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>45113</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>45113</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>45119</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>45131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>45134</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>45149</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>45149</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>45160</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>45161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44053</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44371</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44645</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44964</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44509</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>44873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44979</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43326</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43391</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43398</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43426</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43432</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43433</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43452</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43453</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43455</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43488</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43488</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43488</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43495</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43517</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43522</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43523</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43524</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43544</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43544</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>43544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>43551</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>43557</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>43563</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>43565</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>43580</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43584</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43587</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43595</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43626</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43641</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43643</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43644</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43649</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43662</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43662</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43662</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43663</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43703</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43742</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43754</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43754</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43868</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43885</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43885</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43893</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43903</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43907</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43907</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43917</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43928</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43928</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43957</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43959</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43966</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43977</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43985</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43994</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>44005</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>44012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>44025</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>44037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>44039</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44041</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44112</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44112</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>44130</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44137</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>44138</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>44154</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44161</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44175</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44186</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44186</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44200</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44217</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44224</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44225</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44225</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44250</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44251</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44279</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44279</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44279</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44285</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44355</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44364</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44378</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>44383</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>44390</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44390</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44390</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>44392</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44393</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44425</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44425</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44427</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44461</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44462</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44467</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44482</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44487</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>44502</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>44502</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44509</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>44510</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>44537</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>44539</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44543</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>44578</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44613</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>44613</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44617</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44645</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44645</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44649</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44693</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44726</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44740</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44748</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44768</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44783</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44783</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44819</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44831</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44841</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44869</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44869</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44874</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44936</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44942</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44970</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44970</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44973</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44979</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44981</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44981</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44981</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44981</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44992</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44992</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44994</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44994</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44997</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45008</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45014</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45035</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45036</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45043</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45043</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45062</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>45062</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>45062</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>45062</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>45063</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>45065</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>45078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>45078</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>45091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>45091</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>45096</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>45097</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>45099</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>45103</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>45103</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>45103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>45112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>45113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>45113</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>45113</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>45119</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>45131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>45134</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>45149</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>45149</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>45160</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>45161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44053</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44371</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44645</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44964</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44509</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>44873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44979</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43326</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43391</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43398</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43426</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43432</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43433</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43452</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43453</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43455</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43488</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43488</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43488</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43495</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43517</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43522</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43523</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43524</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43544</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43544</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>43544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>43551</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>43557</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>43563</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>43565</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>43580</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43584</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43587</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43595</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43626</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43641</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43643</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43644</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43649</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43662</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43662</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43662</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43663</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43703</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43742</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43754</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43754</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43868</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43885</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43885</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43893</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43903</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43907</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43907</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43917</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43928</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43928</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43957</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43959</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43966</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43977</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43985</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43994</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>44005</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>44012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>44025</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>44037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>44039</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44041</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44112</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44112</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>44130</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44137</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>44138</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>44154</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44161</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44175</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44186</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44186</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44200</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44217</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44224</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44225</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44225</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44250</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44251</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44279</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44279</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44279</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44285</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44355</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44364</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44378</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>44383</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>44390</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44390</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44390</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>44392</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44393</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44425</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44425</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44427</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44461</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44462</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44467</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44482</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44487</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>44502</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>44502</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44509</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>44510</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>44537</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>44539</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44543</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>44578</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44613</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>44613</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44617</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44645</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44645</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44649</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44693</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44726</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44740</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44748</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44768</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44783</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44783</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44819</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44831</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44841</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44869</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44869</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44874</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44936</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44942</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44970</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44970</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44973</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44979</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44981</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44981</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44981</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44981</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44992</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44992</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44994</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44994</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44997</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45008</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45014</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45035</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45036</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45043</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45043</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45062</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>45062</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>45062</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>45062</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>45063</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>45065</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>45078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>45078</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>45091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>45091</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>45096</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>45097</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>45099</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>45103</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>45103</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>45103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>45112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>45113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>45113</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>45113</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>45119</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>45131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>45134</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>45149</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>45149</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>45160</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>45161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y232"/>
+  <dimension ref="A1:Y233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44053</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -631,27 +631,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/artfynd/A 36893-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/artfynd/A 36893-2020.xlsx", "A 36893-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/kartor/A 36893-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/kartor/A 36893-2020.png", "A 36893-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomål/A 36893-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomål/A 36893-2020.docx", "A 36893-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomålsmail/A 36893-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomålsmail/A 36893-2020.docx", "A 36893-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsyn/A 36893-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsyn/A 36893-2020.docx", "A 36893-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsynsmail/A 36893-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsynsmail/A 36893-2020.docx", "A 36893-2020")</f>
         <v/>
       </c>
     </row>
@@ -665,7 +665,7 @@
         <v>44371</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -723,27 +723,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/artfynd/A 32329-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/artfynd/A 32329-2021.xlsx", "A 32329-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/kartor/A 32329-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/kartor/A 32329-2021.png", "A 32329-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomål/A 32329-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomål/A 32329-2021.docx", "A 32329-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomålsmail/A 32329-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomålsmail/A 32329-2021.docx", "A 32329-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsyn/A 32329-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsyn/A 32329-2021.docx", "A 32329-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsynsmail/A 32329-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsynsmail/A 32329-2021.docx", "A 32329-2021")</f>
         <v/>
       </c>
     </row>
@@ -757,7 +757,7 @@
         <v>44645</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -810,27 +810,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/artfynd/A 13374-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/artfynd/A 13374-2022.xlsx", "A 13374-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/kartor/A 13374-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/kartor/A 13374-2022.png", "A 13374-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomål/A 13374-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomål/A 13374-2022.docx", "A 13374-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomålsmail/A 13374-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomålsmail/A 13374-2022.docx", "A 13374-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsyn/A 13374-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsyn/A 13374-2022.docx", "A 13374-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsynsmail/A 13374-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsynsmail/A 13374-2022.docx", "A 13374-2022")</f>
         <v/>
       </c>
     </row>
@@ -844,7 +844,7 @@
         <v>44964</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -896,27 +896,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/artfynd/A 6067-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/artfynd/A 6067-2023.xlsx", "A 6067-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/kartor/A 6067-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/kartor/A 6067-2023.png", "A 6067-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomål/A 6067-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomål/A 6067-2023.docx", "A 6067-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomålsmail/A 6067-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomålsmail/A 6067-2023.docx", "A 6067-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsyn/A 6067-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsyn/A 6067-2023.docx", "A 6067-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsynsmail/A 6067-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsynsmail/A 6067-2023.docx", "A 6067-2023")</f>
         <v/>
       </c>
     </row>
@@ -930,7 +930,7 @@
         <v>44509</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -981,27 +981,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/artfynd/A 63965-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/artfynd/A 63965-2021.xlsx", "A 63965-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/kartor/A 63965-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/kartor/A 63965-2021.png", "A 63965-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomål/A 63965-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomål/A 63965-2021.docx", "A 63965-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomålsmail/A 63965-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomålsmail/A 63965-2021.docx", "A 63965-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsyn/A 63965-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsyn/A 63965-2021.docx", "A 63965-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsynsmail/A 63965-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsynsmail/A 63965-2021.docx", "A 63965-2021")</f>
         <v/>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
         <v>44873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1066,27 +1066,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/artfynd/A 52318-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/artfynd/A 52318-2022.xlsx", "A 52318-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/kartor/A 52318-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/kartor/A 52318-2022.png", "A 52318-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomål/A 52318-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomål/A 52318-2022.docx", "A 52318-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomålsmail/A 52318-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomålsmail/A 52318-2022.docx", "A 52318-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsyn/A 52318-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsyn/A 52318-2022.docx", "A 52318-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsynsmail/A 52318-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsynsmail/A 52318-2022.docx", "A 52318-2022")</f>
         <v/>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
         <v>44979</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1151,27 +1151,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/artfynd/A 9006-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/artfynd/A 9006-2023.xlsx", "A 9006-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/kartor/A 9006-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/kartor/A 9006-2023.png", "A 9006-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomål/A 9006-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomål/A 9006-2023.docx", "A 9006-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomålsmail/A 9006-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomålsmail/A 9006-2023.docx", "A 9006-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsyn/A 9006-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsyn/A 9006-2023.docx", "A 9006-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsynsmail/A 9006-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsynsmail/A 9006-2023.docx", "A 9006-2023")</f>
         <v/>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
         <v>43326</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43391</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43398</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43426</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43432</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43433</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43452</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43453</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43455</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43488</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43488</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43488</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43495</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43517</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43522</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43523</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43524</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43544</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43544</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>43544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>43551</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>43557</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>43563</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>43565</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>43580</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43584</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43587</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43595</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43626</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43641</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43643</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43644</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43649</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43662</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43662</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43662</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43663</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43703</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43742</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43754</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43754</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43868</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43885</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43885</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43893</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43903</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43907</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43907</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43917</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43928</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43928</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43957</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43959</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43966</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43977</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43985</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43994</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>44005</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>44012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>44025</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>44037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>44039</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44041</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44112</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44112</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>44130</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44137</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>44138</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>44154</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44161</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44175</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44186</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44186</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44200</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44217</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44224</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44225</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44225</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44250</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44251</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44279</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44279</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44279</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44285</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44355</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44364</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44378</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>44383</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>44390</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44390</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44390</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>44392</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44393</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44425</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44425</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44427</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44461</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44462</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44467</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44482</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44487</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>44502</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>44502</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44509</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>44510</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>44537</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>44539</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44543</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>44578</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44613</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>44613</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44617</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44645</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44645</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44649</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44693</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44726</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44740</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44748</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44768</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44783</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44783</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44819</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44831</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44841</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44869</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44869</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44874</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44936</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44942</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44970</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44970</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44973</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44979</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44981</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44981</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44981</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44981</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44992</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44992</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44994</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44994</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44997</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45008</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45014</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45035</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45036</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45043</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45043</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45062</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>45062</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>45062</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>45062</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>45063</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>45065</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>45078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>45078</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>45091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>45091</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>45096</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>45097</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>45099</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>45103</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>45103</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>45103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>45112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>45113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>45113</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>45113</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>45119</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>45131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>45134</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>45149</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>45149</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>45160</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
       </c>
       <c r="R231" s="2" t="inlineStr"/>
     </row>
-    <row r="232">
+    <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
           <t>A 38284-2023</t>
@@ -13986,7 +13986,7 @@
         <v>45161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14032,6 +14032,63 @@
         <v>0</v>
       </c>
       <c r="R232" s="2" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>A 43526-2023</t>
+        </is>
+      </c>
+      <c r="B233" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C233" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>KUNGSBACKA</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0</v>
+      </c>
+      <c r="O233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R233" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44053</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44371</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44645</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44964</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44509</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>44873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44979</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43326</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43391</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43398</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43426</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43432</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43433</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43452</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43453</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43455</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43488</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43488</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43488</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43495</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43517</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43522</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43523</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43524</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43544</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43544</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>43544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>43551</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>43557</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>43563</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>43565</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>43580</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43584</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43587</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43595</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43626</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43641</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43643</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43644</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43649</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43662</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43662</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43662</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43663</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43703</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43742</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43754</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43754</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43868</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43885</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43885</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43893</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43903</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43907</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43907</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43917</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43928</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43928</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43957</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43959</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43966</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43977</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43985</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43994</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>44005</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>44012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>44025</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>44037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>44039</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44041</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44112</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44112</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>44130</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44137</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>44138</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>44154</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44161</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44175</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44186</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44186</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44200</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44217</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44224</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44225</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44225</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44250</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44251</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44279</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44279</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44279</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44285</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44355</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44364</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44378</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>44383</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>44390</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44390</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44390</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>44392</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44393</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44425</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44425</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44427</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44461</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44462</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44467</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44482</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44487</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>44502</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>44502</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44509</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>44510</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>44537</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>44539</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44543</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>44578</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44613</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>44613</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44617</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44645</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44645</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44649</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44693</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44726</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44740</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44748</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44768</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44783</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44783</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44819</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44831</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44841</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44869</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44869</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44874</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44936</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44942</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44970</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44970</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44973</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44979</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44981</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44981</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44981</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44981</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44992</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44992</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44994</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44994</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44997</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45008</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45014</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45035</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45036</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45043</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45043</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45062</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>45062</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>45062</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>45062</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>45063</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>45065</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>45078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>45078</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>45091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>45091</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>45096</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>45097</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>45099</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>45103</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>45103</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>45103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>45112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>45113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>45113</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>45113</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>45119</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>45131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>45134</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>45149</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>45149</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>45160</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>45161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>45184</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44053</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44371</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44645</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44964</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44509</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>44873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44979</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43326</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43391</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43398</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43426</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43432</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43433</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43452</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43453</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43455</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43488</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43488</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43488</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43495</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43517</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43522</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43523</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43524</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43544</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43544</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>43544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>43551</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>43557</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>43563</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>43565</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>43580</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43584</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43587</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43595</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43626</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43641</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43643</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43644</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43649</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43662</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43662</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43662</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43663</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43703</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43742</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43754</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43754</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43868</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43885</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43885</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43893</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43903</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43907</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43907</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43917</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43928</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43928</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43957</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43959</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43966</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43977</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43985</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43994</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>44005</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>44012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>44025</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>44037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>44039</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44041</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44112</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44112</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>44130</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44137</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>44138</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>44154</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44161</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44175</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44186</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44186</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44200</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44217</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44224</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44225</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44225</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44250</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44251</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44279</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44279</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44279</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44285</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44355</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44364</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44378</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>44383</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>44390</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44390</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44390</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>44392</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44393</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44425</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44425</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44427</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44461</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44462</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44467</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44482</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44487</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>44502</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>44502</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44509</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>44510</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>44537</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>44539</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44543</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>44578</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44613</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>44613</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44617</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44645</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44645</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44649</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44693</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44726</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44740</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44748</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44768</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44783</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44783</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44819</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44831</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44841</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44869</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44869</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44874</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44936</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44942</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44970</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44970</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44973</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44979</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44981</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44981</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44981</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44981</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44992</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44992</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44994</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44994</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44997</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45008</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45014</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45035</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45036</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45043</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45043</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45062</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>45062</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>45062</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>45062</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>45063</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>45065</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>45078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>45078</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>45091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>45091</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>45096</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>45097</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>45099</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>45103</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>45103</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>45103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>45112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>45113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>45113</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>45113</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>45119</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>45131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>45134</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>45149</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>45149</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>45160</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>45161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>45184</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y233"/>
+  <dimension ref="A1:Y234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44053</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44371</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44645</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44964</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44509</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>44873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44979</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43326</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43391</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43398</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43426</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43432</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43433</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43452</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43453</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43455</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43488</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43488</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43488</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43495</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43517</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43522</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43523</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43524</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43544</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43544</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>43544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>43551</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>43557</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>43563</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>43565</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>43580</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43584</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43587</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43595</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43626</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43641</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43643</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43644</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43649</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43662</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43662</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43662</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43663</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43703</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43742</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43754</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43754</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43868</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43885</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43885</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43893</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43903</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43907</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43907</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43917</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43928</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43928</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43957</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43959</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43966</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43977</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43985</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43994</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>44005</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>44012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>44025</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>44037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>44039</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44041</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44112</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44112</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>44130</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44137</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>44138</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>44154</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44161</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44175</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44186</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44186</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44200</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44217</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44224</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44225</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44225</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44250</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44251</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44279</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44279</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44279</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44285</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44355</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44364</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44378</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>44383</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>44390</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44390</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44390</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>44392</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44393</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44425</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44425</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44427</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44461</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44462</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44467</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44482</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44487</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>44502</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>44502</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44509</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>44510</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>44537</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>44539</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44543</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>44578</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44613</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>44613</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44617</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44645</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44645</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44649</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44693</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44726</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44740</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44748</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44768</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44783</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44783</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44819</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44831</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44841</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44869</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44869</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44874</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44936</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44942</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44970</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44970</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44973</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44979</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44981</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44981</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44981</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44981</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44992</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44992</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44994</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44994</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44997</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45008</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45014</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45035</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45036</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45043</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45043</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45062</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>45062</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>45062</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>45062</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>45063</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>45065</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>45078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>45078</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>45091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>45091</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>45096</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>45097</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>45099</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>45103</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>45103</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>45103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>45112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>45113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>45113</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>45113</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>45119</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>45131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>45134</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>45149</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>45149</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>45160</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>45161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
       </c>
       <c r="R232" s="2" t="inlineStr"/>
     </row>
-    <row r="233">
+    <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
           <t>A 43526-2023</t>
@@ -14043,7 +14043,7 @@
         <v>45184</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14089,6 +14089,63 @@
         <v>0</v>
       </c>
       <c r="R233" s="2" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>A 44353-2023</t>
+        </is>
+      </c>
+      <c r="B234" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C234" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>KUNGSBACKA</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0</v>
+      </c>
+      <c r="O234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>0</v>
+      </c>
+      <c r="R234" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44053</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44371</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44645</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44964</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44509</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>44873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44979</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43326</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43391</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43398</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43426</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43432</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43433</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43452</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43453</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43455</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43488</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43488</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43488</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43495</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43517</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43522</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43523</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43524</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43544</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43544</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>43544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>43551</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>43557</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>43563</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>43565</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>43580</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43584</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43587</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43595</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43606</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43626</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43641</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43643</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43644</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43649</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43662</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43662</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43662</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43663</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43703</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43707</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43742</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43754</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43754</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43754</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43868</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43885</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43885</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43893</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43903</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43907</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43907</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43917</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43928</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43928</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43957</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43959</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43966</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43977</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43985</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43994</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>44005</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>44012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>44025</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>44037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>44039</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44041</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44112</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44112</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>44130</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44137</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>44138</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>44154</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44161</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44175</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44186</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44186</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44200</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44217</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44224</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44225</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44225</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44250</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44251</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44279</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44279</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44279</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44285</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44355</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44364</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44378</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>44383</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>44390</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44390</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44390</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>44392</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44393</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44425</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44425</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44427</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44461</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44462</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44467</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44482</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44487</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>44502</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>44502</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>44509</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>44510</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>44537</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>44539</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44543</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>44578</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>44613</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>44613</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44617</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>44645</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>44645</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44649</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44693</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44726</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44740</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44748</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44768</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44783</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44783</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44819</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44831</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44841</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44869</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44869</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44874</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44936</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44942</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44970</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44970</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44973</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44979</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44981</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44981</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44981</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44981</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44992</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44992</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>44994</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>44994</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44997</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45008</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45014</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45035</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45036</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45042</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45043</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45043</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45062</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>45062</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>45062</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>45062</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>45063</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>45065</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>45078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>45078</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>45091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>45091</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>45096</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>45097</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>45099</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>45103</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>45103</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>45103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>45112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>45113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>45113</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>45113</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>45119</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>45131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>45134</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>45149</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>45149</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>45160</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>45161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>45184</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>45188</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y234"/>
+  <dimension ref="A1:Y235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44053</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44371</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44645</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44964</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44509</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>44873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44979</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,14 +1178,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 35829-2018</t>
+          <t>A 46459-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>43326</v>
+        <v>45197</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1197,17 +1197,22 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1222,27 +1227,55 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Drillsnäppa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/artfynd/A 46459-2023.xlsx", "A 46459-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/kartor/A 46459-2023.png", "A 46459-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomål/A 46459-2023.docx", "A 46459-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/klagomålsmail/A 46459-2023.docx", "A 46459-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsyn/A 46459-2023.docx", "A 46459-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUNGSBACKA/tillsynsmail/A 46459-2023.docx", "A 46459-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 53684-2018</t>
+          <t>A 35829-2018</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>43391</v>
+        <v>43326</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1255,7 +1288,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1292,14 +1325,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 58320-2018</t>
+          <t>A 53684-2018</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>43398</v>
+        <v>43391</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1312,7 +1345,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1349,14 +1382,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 58310-2018</t>
+          <t>A 58320-2018</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1369,7 +1402,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.5</v>
+        <v>6.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1406,14 +1439,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 58322-2018</t>
+          <t>A 58310-2018</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1426,7 +1459,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1463,14 +1496,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 60696-2018</t>
+          <t>A 58322-2018</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>43409</v>
+        <v>43398</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1483,7 +1516,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1520,14 +1553,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 62295-2018</t>
+          <t>A 60696-2018</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>43426</v>
+        <v>43409</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1540,7 +1573,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1577,14 +1610,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 62579-2018</t>
+          <t>A 62295-2018</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>43426</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1597,7 +1630,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1634,14 +1667,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 62294-2018</t>
+          <t>A 62579-2018</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1654,7 +1687,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1691,14 +1724,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 65190-2018</t>
+          <t>A 62294-2018</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>43432</v>
+        <v>43426</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1711,7 +1744,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1748,14 +1781,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 65586-2018</t>
+          <t>A 65190-2018</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>43433</v>
+        <v>43432</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1768,7 +1801,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1805,14 +1838,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 66418-2018</t>
+          <t>A 65586-2018</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>43437</v>
+        <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1825,7 +1858,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1862,14 +1895,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 71126-2018</t>
+          <t>A 66418-2018</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>43452</v>
+        <v>43437</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1882,7 +1915,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1919,14 +1952,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 71125-2018</t>
+          <t>A 71126-2018</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
         <v>43452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1939,7 +1972,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.8</v>
+        <v>4.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1976,14 +2009,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 71438-2018</t>
+          <t>A 71125-2018</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>43453</v>
+        <v>43452</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1996,7 +2029,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2033,14 +2066,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 72051-2018</t>
+          <t>A 71438-2018</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>43455</v>
+        <v>43453</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2052,13 +2085,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>2.8</v>
+        <v>0.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2095,14 +2123,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 2172-2019</t>
+          <t>A 72051-2018</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>43472</v>
+        <v>43455</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2114,8 +2142,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2152,14 +2185,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 2852-2019</t>
+          <t>A 2172-2019</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2172,7 +2205,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2209,14 +2242,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 2774-2019</t>
+          <t>A 2852-2019</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2229,7 +2262,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2266,14 +2299,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 921-2019</t>
+          <t>A 2774-2019</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2286,7 +2319,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2323,14 +2356,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 2499-2019</t>
+          <t>A 921-2019</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43476</v>
+        <v>43472</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2343,7 +2376,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2380,14 +2413,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 5263-2019</t>
+          <t>A 2499-2019</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43488</v>
+        <v>43476</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2400,7 +2433,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2437,14 +2470,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 5266-2019</t>
+          <t>A 5263-2019</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
         <v>43488</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2457,7 +2490,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2494,14 +2527,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 5278-2019</t>
+          <t>A 5266-2019</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
         <v>43488</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2514,7 +2547,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2551,14 +2584,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 5336-2019</t>
+          <t>A 5278-2019</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
         <v>43488</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2571,7 +2604,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2608,14 +2641,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 6888-2019</t>
+          <t>A 5336-2019</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>43495</v>
+        <v>43488</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2628,7 +2661,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2665,14 +2698,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 11365-2019</t>
+          <t>A 6888-2019</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>43517</v>
+        <v>43495</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2685,7 +2718,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>14.2</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2722,14 +2755,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 12100-2019</t>
+          <t>A 11365-2019</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>43522</v>
+        <v>43517</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2742,7 +2775,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.7</v>
+        <v>14.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2779,14 +2812,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 12293-2019</t>
+          <t>A 12100-2019</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43523</v>
+        <v>43522</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2799,7 +2832,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2836,14 +2869,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 12598-2019</t>
+          <t>A 12293-2019</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43524</v>
+        <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2856,7 +2889,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2893,14 +2926,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 14576-2019</t>
+          <t>A 12598-2019</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43536</v>
+        <v>43524</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2913,7 +2946,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2950,14 +2983,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 15912-2019</t>
+          <t>A 14576-2019</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>43544</v>
+        <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2970,7 +3003,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3007,14 +3040,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 15910-2019</t>
+          <t>A 15912-2019</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3027,7 +3060,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3064,14 +3097,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 15914-2019</t>
+          <t>A 15910-2019</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3084,7 +3117,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3121,14 +3154,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 15975-2019</t>
+          <t>A 15914-2019</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3141,7 +3174,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3178,14 +3211,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 17145-2019</t>
+          <t>A 15975-2019</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>43551</v>
+        <v>43544</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3198,7 +3231,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3235,14 +3268,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 17886-2019</t>
+          <t>A 17145-2019</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>43557</v>
+        <v>43551</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3255,7 +3288,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3292,14 +3325,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 19013-2019</t>
+          <t>A 17886-2019</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>43563</v>
+        <v>43557</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3312,7 +3345,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3349,14 +3382,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 19331-2019</t>
+          <t>A 19013-2019</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>43565</v>
+        <v>43563</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3369,7 +3402,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3406,14 +3439,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 21505-2019</t>
+          <t>A 19331-2019</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>43580</v>
+        <v>43565</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3426,7 +3459,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>7.7</v>
+        <v>0.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3463,14 +3496,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 21996-2019</t>
+          <t>A 21505-2019</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>43584</v>
+        <v>43580</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3483,7 +3516,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.5</v>
+        <v>7.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3520,14 +3553,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 22474-2019</t>
+          <t>A 21996-2019</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>43587</v>
+        <v>43584</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3540,7 +3573,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3577,14 +3610,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 23857-2019</t>
+          <t>A 22474-2019</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>43595</v>
+        <v>43587</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3597,7 +3630,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3634,14 +3667,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 25536-2019</t>
+          <t>A 23857-2019</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>43606</v>
+        <v>43595</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3654,7 +3687,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>6.6</v>
+        <v>0.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3691,14 +3724,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 27467-2019</t>
+          <t>A 25536-2019</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>43619</v>
+        <v>43606</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3711,7 +3744,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.4</v>
+        <v>6.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3748,14 +3781,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 28032-2019</t>
+          <t>A 27467-2019</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>43621</v>
+        <v>43619</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3768,7 +3801,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3805,14 +3838,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 28459-2019</t>
+          <t>A 28032-2019</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>43626</v>
+        <v>43621</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3825,7 +3858,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>11.2</v>
+        <v>0.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3862,14 +3895,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 31498-2019</t>
+          <t>A 28459-2019</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>43641</v>
+        <v>43626</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3882,7 +3915,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.2</v>
+        <v>11.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3919,14 +3952,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 32059-2019</t>
+          <t>A 31498-2019</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>43643</v>
+        <v>43641</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3939,7 +3972,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3976,14 +4009,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 32437-2019</t>
+          <t>A 32059-2019</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>43644</v>
+        <v>43643</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3996,7 +4029,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4033,14 +4066,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 33205-2019</t>
+          <t>A 32437-2019</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>43649</v>
+        <v>43644</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4052,13 +4085,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4095,14 +4123,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 35274-2019</t>
+          <t>A 33205-2019</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>43662</v>
+        <v>43649</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4114,8 +4142,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4152,14 +4185,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 35263-2019</t>
+          <t>A 35274-2019</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
         <v>43662</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4172,7 +4205,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4209,14 +4242,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 35265-2019</t>
+          <t>A 35263-2019</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
         <v>43662</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4229,7 +4262,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4266,14 +4299,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 35446-2019</t>
+          <t>A 35265-2019</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>43663</v>
+        <v>43662</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4286,7 +4319,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4323,14 +4356,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 42233-2019</t>
+          <t>A 35446-2019</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>43703</v>
+        <v>43663</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4343,7 +4376,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.6</v>
+        <v>4.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4380,14 +4413,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 43453-2019</t>
+          <t>A 42233-2019</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>43704</v>
+        <v>43703</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4400,7 +4433,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4437,14 +4470,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 43936-2019</t>
+          <t>A 43453-2019</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>43707</v>
+        <v>43704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4457,7 +4490,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4494,14 +4527,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 51495-2019</t>
+          <t>A 43936-2019</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>43740</v>
+        <v>43707</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4514,7 +4547,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4551,14 +4584,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 52007-2019</t>
+          <t>A 51495-2019</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>43742</v>
+        <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4571,7 +4604,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4608,14 +4641,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 53288-2019</t>
+          <t>A 52007-2019</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>43748</v>
+        <v>43742</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4628,7 +4661,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>7.6</v>
+        <v>0.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4665,14 +4698,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 54533-2019</t>
+          <t>A 53288-2019</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43754</v>
+        <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4684,13 +4717,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4727,14 +4755,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 54530-2019</t>
+          <t>A 54533-2019</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
         <v>43754</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4752,7 +4780,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4789,14 +4817,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 54537-2019</t>
+          <t>A 54530-2019</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
         <v>43754</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4814,7 +4842,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5.9</v>
+        <v>9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4851,14 +4879,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 54535-2019</t>
+          <t>A 54537-2019</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4876,7 +4904,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.8</v>
+        <v>5.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4913,14 +4941,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 6980-2020</t>
+          <t>A 54535-2019</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>43868</v>
+        <v>43754</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4932,8 +4960,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4970,14 +5003,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 10195-2020</t>
+          <t>A 6980-2020</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>43885</v>
+        <v>43868</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4990,7 +5023,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5027,14 +5060,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 10370-2020</t>
+          <t>A 10195-2020</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
         <v>43885</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5047,7 +5080,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5084,14 +5117,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 11459-2020</t>
+          <t>A 10370-2020</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43893</v>
+        <v>43885</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5104,7 +5137,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5141,14 +5174,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 13631-2020</t>
+          <t>A 11459-2020</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43903</v>
+        <v>43893</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5161,7 +5194,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5198,14 +5231,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 14296-2020</t>
+          <t>A 13631-2020</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>43907</v>
+        <v>43903</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5218,7 +5251,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5255,14 +5288,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 14299-2020</t>
+          <t>A 14296-2020</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
         <v>43907</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5275,7 +5308,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5312,14 +5345,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 16250-2020</t>
+          <t>A 14299-2020</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>43917</v>
+        <v>43907</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5332,7 +5365,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5369,14 +5402,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 18321-2020</t>
+          <t>A 16250-2020</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>43928</v>
+        <v>43917</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5389,7 +5422,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>12.4</v>
+        <v>0.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5426,14 +5459,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 18328-2020</t>
+          <t>A 18321-2020</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
         <v>43928</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5446,7 +5479,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.8</v>
+        <v>12.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5483,14 +5516,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 21678-2020</t>
+          <t>A 18328-2020</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>43957</v>
+        <v>43928</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5503,7 +5536,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5540,14 +5573,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 22014-2020</t>
+          <t>A 21678-2020</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5560,7 +5593,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5597,14 +5630,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 23226-2020</t>
+          <t>A 22014-2020</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>43966</v>
+        <v>43959</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5617,7 +5650,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>10.1</v>
+        <v>0.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5654,14 +5687,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 24631-2020</t>
+          <t>A 23226-2020</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>43977</v>
+        <v>43966</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5674,7 +5707,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.7</v>
+        <v>10.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5711,14 +5744,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 24634-2020</t>
+          <t>A 24631-2020</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5731,7 +5764,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5768,14 +5801,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 25960-2020</t>
+          <t>A 24634-2020</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>43985</v>
+        <v>43977</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5788,7 +5821,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5825,14 +5858,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 28111-2020</t>
+          <t>A 25960-2020</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>43994</v>
+        <v>43985</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5845,7 +5878,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>5.8</v>
+        <v>2.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5882,14 +5915,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 29629-2020</t>
+          <t>A 28111-2020</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44005</v>
+        <v>43994</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5902,7 +5935,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.5</v>
+        <v>5.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5939,14 +5972,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 31104-2020</t>
+          <t>A 29629-2020</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44012</v>
+        <v>44005</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5959,7 +5992,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>7.1</v>
+        <v>0.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5996,14 +6029,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 33528-2020</t>
+          <t>A 31104-2020</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44025</v>
+        <v>44012</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6016,7 +6049,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.3</v>
+        <v>7.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6053,14 +6086,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 34936-2020</t>
+          <t>A 33528-2020</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44037</v>
+        <v>44025</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6073,7 +6106,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6110,14 +6143,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 34964-2020</t>
+          <t>A 34936-2020</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44039</v>
+        <v>44037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6129,13 +6162,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>7.4</v>
+        <v>1.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6172,14 +6200,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 35275-2020</t>
+          <t>A 34964-2020</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44041</v>
+        <v>44039</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6191,8 +6219,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>5.4</v>
+        <v>7.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6229,14 +6262,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 51198-2020</t>
+          <t>A 35275-2020</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44112</v>
+        <v>44041</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6249,7 +6282,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.4</v>
+        <v>5.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6286,14 +6319,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 52369-2020</t>
+          <t>A 51198-2020</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
         <v>44112</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6306,7 +6339,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6343,14 +6376,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 51155-2020</t>
+          <t>A 52369-2020</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
         <v>44112</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6363,7 +6396,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6400,14 +6433,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 52303-2020</t>
+          <t>A 51155-2020</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44117</v>
+        <v>44112</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6420,7 +6453,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6457,14 +6490,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 55049-2020</t>
+          <t>A 52303-2020</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44130</v>
+        <v>44117</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6477,7 +6510,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6514,14 +6547,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 56629-2020</t>
+          <t>A 55049-2020</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44137</v>
+        <v>44130</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6534,7 +6567,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6571,14 +6604,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 56959-2020</t>
+          <t>A 56629-2020</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44138</v>
+        <v>44137</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6591,7 +6624,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6628,14 +6661,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 60790-2020</t>
+          <t>A 56959-2020</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44154</v>
+        <v>44138</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6647,13 +6680,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6690,14 +6718,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 62753-2020</t>
+          <t>A 60790-2020</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44161</v>
+        <v>44154</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6709,8 +6737,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6747,14 +6780,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 66004-2020</t>
+          <t>A 62753-2020</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44175</v>
+        <v>44161</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6766,13 +6799,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>17.3</v>
+        <v>3.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6809,14 +6837,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 68588-2020</t>
+          <t>A 66004-2020</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44186</v>
+        <v>44175</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6828,8 +6856,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>1.3</v>
+        <v>17.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6866,14 +6899,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 68618-2020</t>
+          <t>A 68588-2020</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
         <v>44186</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6886,7 +6919,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6923,14 +6956,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 68617-2020</t>
+          <t>A 68618-2020</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6943,7 +6976,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6980,14 +7013,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 149-2021</t>
+          <t>A 68617-2020</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44200</v>
+        <v>44186</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7000,7 +7033,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7037,14 +7070,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 3355-2021</t>
+          <t>A 149-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44217</v>
+        <v>44200</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7057,7 +7090,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>17.6</v>
+        <v>2.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7094,14 +7127,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 4554-2021</t>
+          <t>A 3355-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44224</v>
+        <v>44217</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7114,7 +7147,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.2</v>
+        <v>17.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7151,14 +7184,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 4862-2021</t>
+          <t>A 4554-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7171,7 +7204,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>6.6</v>
+        <v>4.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7208,14 +7241,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 4831-2021</t>
+          <t>A 4862-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
         <v>44225</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7228,7 +7261,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7265,14 +7298,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 8410-2021</t>
+          <t>A 4831-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44245</v>
+        <v>44225</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7285,7 +7318,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.4</v>
+        <v>7.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7322,14 +7355,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 9282-2021</t>
+          <t>A 8410-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44250</v>
+        <v>44245</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7342,7 +7375,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7379,14 +7412,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 9499-2021</t>
+          <t>A 9282-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7399,7 +7432,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7436,14 +7469,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 10346-2021</t>
+          <t>A 9499-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44257</v>
+        <v>44251</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7456,7 +7489,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7493,14 +7526,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 13775-2021</t>
+          <t>A 10346-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44274</v>
+        <v>44257</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7513,7 +7546,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7550,14 +7583,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 14361-2021</t>
+          <t>A 13775-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44279</v>
+        <v>44274</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7570,7 +7603,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7607,14 +7640,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 14390-2021</t>
+          <t>A 14361-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
         <v>44279</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7627,7 +7660,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7664,14 +7697,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 14374-2021</t>
+          <t>A 14390-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7721,14 +7754,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 14399-2021</t>
+          <t>A 14374-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
         <v>44279</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7741,7 +7774,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7778,14 +7811,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 15632-2021</t>
+          <t>A 14399-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44285</v>
+        <v>44279</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7798,7 +7831,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7835,14 +7868,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 28118-2021</t>
+          <t>A 15632-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44355</v>
+        <v>44285</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7855,7 +7888,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>12.2</v>
+        <v>2.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7892,14 +7925,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 30473-2021</t>
+          <t>A 28118-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44364</v>
+        <v>44355</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7912,7 +7945,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.7</v>
+        <v>12.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7949,14 +7982,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 33715-2021</t>
+          <t>A 30473-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44378</v>
+        <v>44364</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7969,7 +8002,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8006,14 +8039,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 34939-2021</t>
+          <t>A 33715-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44383</v>
+        <v>44378</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8026,7 +8059,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8063,14 +8096,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 36358-2021</t>
+          <t>A 34939-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44390</v>
+        <v>44383</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8082,13 +8115,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>8.199999999999999</v>
+        <v>3.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8125,14 +8153,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 36364-2021</t>
+          <t>A 36358-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
         <v>44390</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8150,7 +8178,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>13.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8187,14 +8215,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 36361-2021</t>
+          <t>A 36364-2021</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
         <v>44390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8212,7 +8240,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>11.7</v>
+        <v>13.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8249,14 +8277,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 36368-2021</t>
+          <t>A 36361-2021</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
         <v>44390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8274,7 +8302,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.4</v>
+        <v>11.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8311,14 +8339,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 36366-2021</t>
+          <t>A 36368-2021</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
         <v>44390</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8336,7 +8364,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>6.2</v>
+        <v>2.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8373,14 +8401,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 36650-2021</t>
+          <t>A 36366-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44392</v>
+        <v>44390</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8392,8 +8420,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>2.9</v>
+        <v>6.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8430,14 +8463,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 36984-2021</t>
+          <t>A 36650-2021</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8449,13 +8482,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8492,14 +8520,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 39418-2021</t>
+          <t>A 36984-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44414</v>
+        <v>44393</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8511,8 +8539,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8549,14 +8582,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 41766-2021</t>
+          <t>A 39418-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44425</v>
+        <v>44414</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8569,7 +8602,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.5</v>
+        <v>5.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8606,14 +8639,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 41769-2021</t>
+          <t>A 41766-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
         <v>44425</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8626,7 +8659,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8663,14 +8696,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 42377-2021</t>
+          <t>A 41769-2021</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44427</v>
+        <v>44425</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8683,7 +8716,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8720,14 +8753,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 51059-2021</t>
+          <t>A 42377-2021</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44461</v>
+        <v>44427</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8740,7 +8773,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8777,14 +8810,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 51535-2021</t>
+          <t>A 51059-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44462</v>
+        <v>44461</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8797,7 +8830,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8834,14 +8867,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 52909-2021</t>
+          <t>A 51535-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44467</v>
+        <v>44462</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8854,7 +8887,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8891,14 +8924,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 57034-2021</t>
+          <t>A 52909-2021</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44482</v>
+        <v>44467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8911,7 +8944,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8948,14 +8981,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 58118-2021</t>
+          <t>A 57034-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44487</v>
+        <v>44482</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8968,7 +9001,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9005,14 +9038,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 62158-2021</t>
+          <t>A 58118-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44502</v>
+        <v>44487</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9025,7 +9058,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9062,14 +9095,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 62156-2021</t>
+          <t>A 62158-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
         <v>44502</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9082,7 +9115,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9119,14 +9152,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 63966-2021</t>
+          <t>A 62156-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44509</v>
+        <v>44502</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9139,7 +9172,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9176,14 +9209,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 64129-2021</t>
+          <t>A 63966-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9196,7 +9229,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9233,14 +9266,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 70634-2021</t>
+          <t>A 64129-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44537</v>
+        <v>44510</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9253,7 +9286,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9290,14 +9323,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 71676-2021</t>
+          <t>A 70634-2021</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44539</v>
+        <v>44537</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9310,7 +9343,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>8.1</v>
+        <v>0.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9347,14 +9380,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 71687-2021</t>
+          <t>A 71676-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
         <v>44539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9367,7 +9400,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.1</v>
+        <v>8.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9404,14 +9437,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 71891-2021</t>
+          <t>A 71687-2021</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44543</v>
+        <v>44539</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9424,7 +9457,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9461,14 +9494,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 2281-2022</t>
+          <t>A 71891-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44578</v>
+        <v>44543</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9481,7 +9514,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9518,14 +9551,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 6260-2022</t>
+          <t>A 2281-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44600</v>
+        <v>44578</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9538,7 +9571,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9575,14 +9608,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 8640-2022</t>
+          <t>A 6260-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44613</v>
+        <v>44600</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9595,7 +9628,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>6.6</v>
+        <v>2.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9632,14 +9665,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 8677-2022</t>
+          <t>A 8640-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
         <v>44613</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9652,7 +9685,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.5</v>
+        <v>6.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9689,14 +9722,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 9507-2022</t>
+          <t>A 8677-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44617</v>
+        <v>44613</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9708,13 +9741,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9751,14 +9779,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 13434-2022</t>
+          <t>A 9507-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44645</v>
+        <v>44617</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9770,8 +9798,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9808,14 +9841,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 13373-2022</t>
+          <t>A 13434-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9828,7 +9861,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9865,14 +9898,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 13739-2022</t>
+          <t>A 13373-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44649</v>
+        <v>44645</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9885,7 +9918,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9922,14 +9955,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 19502-2022</t>
+          <t>A 13739-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44693</v>
+        <v>44649</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9942,7 +9975,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9979,14 +10012,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 24459-2022</t>
+          <t>A 19502-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44726</v>
+        <v>44693</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9999,7 +10032,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10036,14 +10069,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 26979-2022</t>
+          <t>A 24459-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44740</v>
+        <v>44726</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10056,7 +10089,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10093,14 +10126,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 28529-2022</t>
+          <t>A 26979-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44748</v>
+        <v>44740</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10113,7 +10146,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>7.2</v>
+        <v>5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10150,14 +10183,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 30901-2022</t>
+          <t>A 28529-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44767</v>
+        <v>44748</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10170,7 +10203,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.9</v>
+        <v>7.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10207,14 +10240,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 30952-2022</t>
+          <t>A 30901-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44768</v>
+        <v>44767</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10227,7 +10260,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10264,14 +10297,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 32699-2022</t>
+          <t>A 30952-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44783</v>
+        <v>44768</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10284,7 +10317,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>9.699999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10321,14 +10354,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 32698-2022</t>
+          <t>A 32699-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
         <v>44783</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10341,7 +10374,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>18.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10378,14 +10411,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 34211-2022</t>
+          <t>A 32698-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44791</v>
+        <v>44783</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10398,7 +10431,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>6.9</v>
+        <v>18.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10435,14 +10468,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 40582-2022</t>
+          <t>A 34211-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44819</v>
+        <v>44791</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10455,7 +10488,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4.1</v>
+        <v>6.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10492,14 +10525,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 42412-2022</t>
+          <t>A 40582-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44831</v>
+        <v>44819</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10512,7 +10545,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.6</v>
+        <v>4.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10549,14 +10582,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 44984-2022</t>
+          <t>A 42412-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44841</v>
+        <v>44831</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10569,7 +10602,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>5.3</v>
+        <v>1.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10606,14 +10639,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 51332-2022</t>
+          <t>A 44984-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44869</v>
+        <v>44841</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10626,7 +10659,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10663,14 +10696,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 51331-2022</t>
+          <t>A 51332-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
         <v>44869</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10683,7 +10716,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10720,14 +10753,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 52317-2022</t>
+          <t>A 51331-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44873</v>
+        <v>44869</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10740,7 +10773,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10777,14 +10810,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 52639-2022</t>
+          <t>A 52317-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44874</v>
+        <v>44873</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10797,7 +10830,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10834,14 +10867,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 1765-2023</t>
+          <t>A 52639-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44936</v>
+        <v>44874</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10854,7 +10887,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>7.3</v>
+        <v>0.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10891,14 +10924,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 2415-2023</t>
+          <t>A 1765-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44942</v>
+        <v>44936</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10911,7 +10944,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>19.2</v>
+        <v>7.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10948,14 +10981,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 2881-2023</t>
+          <t>A 2415-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44945</v>
+        <v>44942</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10968,7 +11001,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.1</v>
+        <v>19.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11005,14 +11038,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 7304-2023</t>
+          <t>A 2881-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44970</v>
+        <v>44945</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11025,7 +11058,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11062,14 +11095,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 7217-2023</t>
+          <t>A 7304-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
         <v>44970</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11082,7 +11115,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11119,14 +11152,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 7995-2023</t>
+          <t>A 7217-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44973</v>
+        <v>44970</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11139,7 +11172,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11176,14 +11209,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 9007-2023</t>
+          <t>A 7995-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44979</v>
+        <v>44973</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11196,7 +11229,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11233,14 +11266,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 9415-2023</t>
+          <t>A 9007-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44981</v>
+        <v>44979</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11253,7 +11286,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11290,14 +11323,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 9417-2023</t>
+          <t>A 9415-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
         <v>44981</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11310,7 +11343,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11347,14 +11380,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 9404-2023</t>
+          <t>A 9417-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
         <v>44981</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11367,7 +11400,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11404,14 +11437,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 9419-2023</t>
+          <t>A 9404-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
         <v>44981</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11424,7 +11457,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11461,14 +11494,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 11086-2023</t>
+          <t>A 9419-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44992</v>
+        <v>44981</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11481,7 +11514,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11518,14 +11551,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 11097-2023</t>
+          <t>A 11086-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11538,7 +11571,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11575,14 +11608,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 11068-2023</t>
+          <t>A 11097-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
         <v>44992</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11595,7 +11628,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>6.3</v>
+        <v>2.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11632,14 +11665,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 11958-2023</t>
+          <t>A 11068-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44994</v>
+        <v>44992</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11652,7 +11685,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.2</v>
+        <v>6.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11689,14 +11722,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 11961-2023</t>
+          <t>A 11958-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
         <v>44994</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11709,7 +11742,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11746,14 +11779,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 12064-2023</t>
+          <t>A 11961-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44997</v>
+        <v>44994</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11766,7 +11799,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>10.5</v>
+        <v>1.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11803,14 +11836,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 14052-2023</t>
+          <t>A 12064-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45008</v>
+        <v>44997</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11823,7 +11856,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.2</v>
+        <v>10.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11860,14 +11893,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 14898-2023</t>
+          <t>A 14052-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45014</v>
+        <v>45008</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11880,7 +11913,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.1</v>
+        <v>2.2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11917,14 +11950,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 15715-2023</t>
+          <t>A 14898-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45021</v>
+        <v>45014</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11937,7 +11970,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.9</v>
+        <v>0.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11974,14 +12007,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 16109-2023</t>
+          <t>A 15715-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45027</v>
+        <v>45021</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12031,14 +12064,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 16271-2023</t>
+          <t>A 16109-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45028</v>
+        <v>45027</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12051,7 +12084,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12088,14 +12121,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 16426-2023</t>
+          <t>A 16271-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45029</v>
+        <v>45028</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12108,7 +12141,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12145,14 +12178,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 17401-2023</t>
+          <t>A 16426-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45035</v>
+        <v>45029</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12165,7 +12198,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12202,14 +12235,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 17621-2023</t>
+          <t>A 17401-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45036</v>
+        <v>45035</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12222,7 +12255,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12259,14 +12292,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 18545-2023</t>
+          <t>A 17621-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45042</v>
+        <v>45036</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12279,7 +12312,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12316,14 +12349,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 18578-2023</t>
+          <t>A 18545-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45043</v>
+        <v>45042</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12336,7 +12369,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12373,14 +12406,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 18579-2023</t>
+          <t>A 18578-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
         <v>45043</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12393,7 +12426,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12430,14 +12463,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 21163-2023</t>
+          <t>A 18579-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45062</v>
+        <v>45043</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12450,7 +12483,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12487,14 +12520,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 21169-2023</t>
+          <t>A 21163-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
         <v>45062</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12507,7 +12540,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12544,14 +12577,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 21306-2023</t>
+          <t>A 21169-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
         <v>45062</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12564,7 +12597,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12601,14 +12634,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 21165-2023</t>
+          <t>A 21306-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
         <v>45062</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12621,7 +12654,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12658,14 +12691,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 21171-2023</t>
+          <t>A 21165-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
         <v>45062</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12678,7 +12711,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12715,14 +12748,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 21378-2023</t>
+          <t>A 21171-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45063</v>
+        <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12735,7 +12768,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12772,14 +12805,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 21721-2023</t>
+          <t>A 21378-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45065</v>
+        <v>45063</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12792,7 +12825,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12829,14 +12862,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 23844-2023</t>
+          <t>A 21721-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45078</v>
+        <v>45065</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12849,7 +12882,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12886,14 +12919,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 23994-2023</t>
+          <t>A 23844-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
         <v>45078</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12905,13 +12938,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12948,14 +12976,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 26155-2023</t>
+          <t>A 23994-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45091</v>
+        <v>45078</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12967,8 +12995,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13005,14 +13038,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 26159-2023</t>
+          <t>A 26155-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
         <v>45091</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13025,7 +13058,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13062,14 +13095,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 27290-2023</t>
+          <t>A 26159-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45096</v>
+        <v>45091</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13082,7 +13115,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13119,14 +13152,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 29237-2023</t>
+          <t>A 27290-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45097</v>
+        <v>45096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13138,13 +13171,8 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13181,14 +13209,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 28036-2023</t>
+          <t>A 29237-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45099</v>
+        <v>45097</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13200,8 +13228,13 @@
           <t>KUNGSBACKA</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13238,14 +13271,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 28611-2023</t>
+          <t>A 28036-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45103</v>
+        <v>45099</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13258,7 +13291,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13295,14 +13328,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 28608-2023</t>
+          <t>A 28611-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
         <v>45103</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13315,7 +13348,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13352,14 +13385,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 28610-2023</t>
+          <t>A 28608-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
         <v>45103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13372,7 +13405,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13409,14 +13442,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 30716-2023</t>
+          <t>A 28610-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45112</v>
+        <v>45103</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13429,7 +13462,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13466,14 +13499,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 31000-2023</t>
+          <t>A 30716-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45113</v>
+        <v>45112</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13523,14 +13556,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 30996-2023</t>
+          <t>A 31000-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
         <v>45113</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13580,14 +13613,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 31087-2023</t>
+          <t>A 30996-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
         <v>45113</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13600,7 +13633,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>4.6</v>
+        <v>1.2</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13637,14 +13670,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 32178-2023</t>
+          <t>A 31087-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45119</v>
+        <v>45113</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13657,7 +13690,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>7.3</v>
+        <v>4.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13694,14 +13727,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 33494-2023</t>
+          <t>A 32178-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45131</v>
+        <v>45119</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13714,7 +13747,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.7</v>
+        <v>7.3</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13751,14 +13784,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 33970-2023</t>
+          <t>A 33494-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45134</v>
+        <v>45131</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13771,7 +13804,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13808,14 +13841,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 36026-2023</t>
+          <t>A 33970-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45149</v>
+        <v>45134</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13828,7 +13861,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13865,14 +13898,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 36068-2023</t>
+          <t>A 36026-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
         <v>45149</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13885,7 +13918,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>5.3</v>
+        <v>2.4</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13922,14 +13955,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 37823-2023</t>
+          <t>A 36068-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45160</v>
+        <v>45149</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13942,7 +13975,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.4</v>
+        <v>5.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13979,14 +14012,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 38284-2023</t>
+          <t>A 37823-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45161</v>
+        <v>45160</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13999,7 +14032,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>19.4</v>
+        <v>2.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14036,116 +14069,173 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
+          <t>A 38284-2023</t>
+        </is>
+      </c>
+      <c r="B233" s="1" t="n">
+        <v>45161</v>
+      </c>
+      <c r="C233" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>KUNGSBACKA</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0</v>
+      </c>
+      <c r="O233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R233" s="2" t="inlineStr"/>
+    </row>
+    <row r="234" ht="15" customHeight="1">
+      <c r="A234" t="inlineStr">
+        <is>
           <t>A 43526-2023</t>
         </is>
       </c>
-      <c r="B233" s="1" t="n">
+      <c r="B234" s="1" t="n">
         <v>45184</v>
       </c>
-      <c r="C233" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>HALLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>KUNGSBACKA</t>
-        </is>
-      </c>
-      <c r="G233" t="n">
+      <c r="C234" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>KUNGSBACKA</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
         <v>1.2</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="n">
-        <v>0</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0</v>
-      </c>
-      <c r="L233" t="n">
-        <v>0</v>
-      </c>
-      <c r="M233" t="n">
-        <v>0</v>
-      </c>
-      <c r="N233" t="n">
-        <v>0</v>
-      </c>
-      <c r="O233" t="n">
-        <v>0</v>
-      </c>
-      <c r="P233" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q233" t="n">
-        <v>0</v>
-      </c>
-      <c r="R233" s="2" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0</v>
+      </c>
+      <c r="O234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>0</v>
+      </c>
+      <c r="R234" s="2" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
         <is>
           <t>A 44353-2023</t>
         </is>
       </c>
-      <c r="B234" s="1" t="n">
+      <c r="B235" s="1" t="n">
         <v>45188</v>
       </c>
-      <c r="C234" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>HALLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>KUNGSBACKA</t>
-        </is>
-      </c>
-      <c r="G234" t="n">
+      <c r="C235" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>KUNGSBACKA</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
         <v>4.8</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="n">
-        <v>0</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0</v>
-      </c>
-      <c r="L234" t="n">
-        <v>0</v>
-      </c>
-      <c r="M234" t="n">
-        <v>0</v>
-      </c>
-      <c r="N234" t="n">
-        <v>0</v>
-      </c>
-      <c r="O234" t="n">
-        <v>0</v>
-      </c>
-      <c r="P234" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q234" t="n">
-        <v>0</v>
-      </c>
-      <c r="R234" s="2" t="inlineStr"/>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0</v>
+      </c>
+      <c r="O235" t="n">
+        <v>0</v>
+      </c>
+      <c r="P235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>0</v>
+      </c>
+      <c r="R235" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y235"/>
+  <dimension ref="A1:Y236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44053</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44371</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44645</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44964</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44509</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>44873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44979</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45197</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43326</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43391</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>43398</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43409</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43426</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43426</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43432</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43437</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43452</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43453</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43455</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43472</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43476</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43488</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43488</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43488</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43488</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43495</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43517</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43522</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43524</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43544</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43544</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43544</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43551</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43557</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43563</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43565</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43580</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43584</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43587</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43595</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43606</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43619</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43621</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43626</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43641</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43643</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43644</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43649</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43662</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43662</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43662</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43663</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43703</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43707</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43742</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43754</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43754</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43754</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43868</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43885</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43885</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43893</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43903</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43907</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43907</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43917</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43928</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43928</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43957</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>43959</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43966</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43977</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43985</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43994</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>44005</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>44012</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>44025</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44039</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>44041</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>44112</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         <v>44112</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6440,7 +6440,7 @@
         <v>44112</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>44117</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>44130</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>44137</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>44138</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>44154</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>44161</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44175</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>44186</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>44186</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>44200</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>44217</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>44224</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>44225</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>44225</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44245</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44250</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>44251</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>44257</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>44274</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>44279</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>44279</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44279</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>44285</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>44355</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44364</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44378</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44383</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>44390</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>44390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>44390</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>44390</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44392</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44393</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>44414</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44425</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>44425</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>44427</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>44461</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>44462</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>44467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>44482</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44487</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44502</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>44502</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>44509</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44510</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44537</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>44539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44539</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44543</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44578</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44600</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44613</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44613</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44617</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44645</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>44645</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>44649</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>44693</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>44726</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>44740</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>44748</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>44767</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>44768</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44783</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>44783</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44791</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44819</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44831</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44841</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44869</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>44869</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44873</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44874</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44936</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44942</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44945</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44970</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44970</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44973</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>44979</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44981</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>44981</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>44981</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>44981</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44992</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44992</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44994</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44994</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44997</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>45008</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>45014</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>45021</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>45027</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>45028</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>45029</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>45035</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>45036</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>45042</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>45043</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>45043</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>45062</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>45062</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>45062</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>45062</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>45063</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>45065</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>45078</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>45078</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>45091</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>45091</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>45096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>45097</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>45099</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>45103</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>45103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45103</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>45112</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>45113</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>45113</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>45113</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>45119</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>45131</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>45134</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>45149</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>45149</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>45160</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>45161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>45184</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
       </c>
       <c r="R234" s="2" t="inlineStr"/>
     </row>
-    <row r="235">
+    <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
           <t>A 44353-2023</t>
@@ -14190,7 +14190,7 @@
         <v>45188</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14236,6 +14236,63 @@
         <v>0</v>
       </c>
       <c r="R235" s="2" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>A 47393-2023</t>
+        </is>
+      </c>
+      <c r="B236" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C236" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>KUNGSBACKA</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N236" t="n">
+        <v>0</v>
+      </c>
+      <c r="O236" t="n">
+        <v>0</v>
+      </c>
+      <c r="P236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>0</v>
+      </c>
+      <c r="R236" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y236"/>
+  <dimension ref="A1:Y237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44053</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44371</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44645</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44964</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44509</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>44873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44979</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45197</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43326</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43391</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>43398</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43409</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43426</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43426</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43432</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43437</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43452</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43453</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43455</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43472</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43476</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43488</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43488</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43488</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43488</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43495</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43517</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43522</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43524</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43544</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43544</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43544</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43551</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43557</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43563</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43565</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43580</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43584</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43587</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43595</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43606</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43619</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43621</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43626</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43641</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43643</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43644</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43649</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43662</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43662</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43662</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43663</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43703</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43707</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43742</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43754</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43754</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43754</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43868</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43885</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43885</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43893</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43903</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43907</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43907</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43917</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43928</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43928</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43957</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>43959</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43966</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43977</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43985</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43994</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>44005</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>44012</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>44025</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44039</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>44041</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>44112</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         <v>44112</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6440,7 +6440,7 @@
         <v>44112</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>44117</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>44130</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>44137</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>44138</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>44154</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>44161</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44175</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>44186</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>44186</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>44200</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>44217</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>44224</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>44225</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>44225</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44245</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44250</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>44251</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>44257</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>44274</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>44279</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>44279</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44279</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>44285</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>44355</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44364</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44378</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44383</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>44390</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>44390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>44390</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>44390</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44392</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44393</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>44414</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44425</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>44425</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>44427</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>44461</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>44462</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>44467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>44482</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44487</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44502</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>44502</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>44509</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44510</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44537</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>44539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44539</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44543</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44578</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44600</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44613</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44613</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44617</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44645</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>44645</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>44649</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>44693</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>44726</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>44740</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>44748</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>44767</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>44768</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44783</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>44783</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44791</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44819</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44831</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44841</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44869</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>44869</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44873</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44874</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44936</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44942</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44945</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44970</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44970</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44973</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>44979</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44981</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>44981</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>44981</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>44981</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44992</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44992</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44994</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44994</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44997</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>45008</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>45014</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>45021</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>45027</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>45028</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>45029</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>45035</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>45036</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>45042</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>45043</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>45043</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>45062</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>45062</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>45062</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>45062</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>45063</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>45065</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>45078</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>45078</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>45091</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>45091</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>45096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>45097</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>45099</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>45103</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>45103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45103</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>45112</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>45113</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>45113</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>45113</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>45119</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>45131</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>45134</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>45149</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>45149</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>45160</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>45161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>45184</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>45188</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
       </c>
       <c r="R235" s="2" t="inlineStr"/>
     </row>
-    <row r="236">
+    <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
           <t>A 47393-2023</t>
@@ -14247,7 +14247,7 @@
         <v>45202</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14293,6 +14293,63 @@
         <v>0</v>
       </c>
       <c r="R236" s="2" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>A 47362-2023</t>
+        </is>
+      </c>
+      <c r="B237" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C237" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>KUNGSBACKA</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0</v>
+      </c>
+      <c r="O237" t="n">
+        <v>0</v>
+      </c>
+      <c r="P237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>0</v>
+      </c>
+      <c r="R237" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44053</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44371</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44645</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44964</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44509</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>44873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44979</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45197</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43326</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43391</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>43398</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43409</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43426</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43426</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43432</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43437</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43452</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43453</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43455</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43472</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43476</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43488</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43488</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43488</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43488</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43495</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43517</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43522</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43524</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43544</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43544</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43544</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43551</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43557</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43563</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43565</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43580</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43584</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43587</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43595</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43606</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43619</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43621</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43626</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43641</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43643</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43644</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43649</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43662</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43662</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43662</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43663</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43703</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43707</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43742</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43754</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43754</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43754</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43868</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43885</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43885</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43893</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43903</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43907</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43907</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43917</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43928</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43928</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43957</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>43959</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43966</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43977</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43985</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43994</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>44005</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>44012</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>44025</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44039</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>44041</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>44112</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         <v>44112</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6440,7 +6440,7 @@
         <v>44112</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>44117</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>44130</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>44137</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>44138</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>44154</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>44161</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44175</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>44186</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>44186</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>44200</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>44217</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>44224</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>44225</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>44225</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44245</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44250</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>44251</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>44257</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>44274</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>44279</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>44279</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44279</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>44285</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>44355</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44364</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44378</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44383</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>44390</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>44390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>44390</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>44390</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44392</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44393</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>44414</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44425</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>44425</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>44427</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>44461</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>44462</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>44467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>44482</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44487</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44502</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>44502</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>44509</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44510</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44537</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>44539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44539</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44543</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44578</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44600</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44613</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44613</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44617</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44645</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>44645</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>44649</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>44693</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>44726</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>44740</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>44748</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>44767</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>44768</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44783</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>44783</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44791</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44819</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44831</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44841</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44869</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>44869</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44873</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44874</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44936</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44942</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44945</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44970</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44970</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44973</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>44979</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44981</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>44981</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>44981</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>44981</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44992</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44992</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44994</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44994</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44997</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>45008</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>45014</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>45021</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>45027</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>45028</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>45029</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>45035</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>45036</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>45042</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>45043</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>45043</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>45062</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>45062</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>45062</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>45062</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>45063</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>45065</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>45078</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>45078</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>45091</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>45091</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>45096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>45097</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>45099</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>45103</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>45103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45103</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>45112</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>45113</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>45113</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>45113</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>45119</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>45131</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>45134</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>45149</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>45149</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>45160</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>45161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>45184</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>45188</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>45202</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>45202</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y237"/>
+  <dimension ref="A1:Y238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44053</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44371</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44645</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44964</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44509</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>44873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44979</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45197</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43326</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43391</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>43398</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43409</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43426</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43426</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43432</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43437</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43452</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43453</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43455</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43472</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43476</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43488</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43488</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43488</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43488</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43495</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43517</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43522</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43524</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43544</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43544</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43544</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43551</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43557</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43563</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43565</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43580</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43584</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43587</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43595</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43606</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43619</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43621</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43626</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43641</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43643</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43644</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43649</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43662</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43662</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43662</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43663</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43703</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43707</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43742</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43754</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43754</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43754</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43868</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43885</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43885</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43893</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43903</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43907</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43907</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43917</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43928</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43928</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43957</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>43959</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43966</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43977</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43985</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43994</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>44005</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>44012</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>44025</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44039</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>44041</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>44112</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         <v>44112</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6440,7 +6440,7 @@
         <v>44112</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>44117</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>44130</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>44137</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>44138</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>44154</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>44161</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44175</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>44186</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>44186</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>44200</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>44217</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>44224</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>44225</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>44225</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44245</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44250</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>44251</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>44257</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>44274</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>44279</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>44279</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44279</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>44285</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>44355</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44364</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44378</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44383</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>44390</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>44390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>44390</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>44390</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44392</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44393</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>44414</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44425</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>44425</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>44427</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>44461</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>44462</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>44467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>44482</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44487</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44502</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>44502</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>44509</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44510</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44537</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>44539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44539</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44543</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44578</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44600</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44613</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44613</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44617</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44645</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>44645</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>44649</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>44693</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>44726</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>44740</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>44748</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>44767</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>44768</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44783</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>44783</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44791</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44819</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44831</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44841</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44869</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>44869</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44873</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44874</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44936</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44942</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44945</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44970</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44970</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44973</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>44979</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44981</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>44981</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>44981</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>44981</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44992</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44992</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44994</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44994</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44997</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>45008</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>45014</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>45021</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>45027</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>45028</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>45029</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>45035</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>45036</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>45042</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>45043</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>45043</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>45062</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>45062</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>45062</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>45062</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>45063</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>45065</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>45078</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>45078</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>45091</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>45091</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>45096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>45097</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>45099</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>45103</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>45103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45103</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>45112</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>45113</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>45113</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>45113</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>45119</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>45131</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>45134</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>45149</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>45149</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>45160</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>45161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>45184</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>45188</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>45202</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
       </c>
       <c r="R236" s="2" t="inlineStr"/>
     </row>
-    <row r="237">
+    <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
           <t>A 47362-2023</t>
@@ -14304,7 +14304,7 @@
         <v>45202</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14350,6 +14350,63 @@
         <v>0</v>
       </c>
       <c r="R237" s="2" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>A 47832-2023</t>
+        </is>
+      </c>
+      <c r="B238" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C238" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>KUNGSBACKA</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N238" t="n">
+        <v>0</v>
+      </c>
+      <c r="O238" t="n">
+        <v>0</v>
+      </c>
+      <c r="P238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>0</v>
+      </c>
+      <c r="R238" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KUNGSBACKA.xlsx
+++ b/Översikt KUNGSBACKA.xlsx
@@ -572,7 +572,7 @@
         <v>44053</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44371</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44645</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44964</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44509</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>44873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44979</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>45197</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43326</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43391</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43398</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>43398</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43409</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43426</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43426</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43426</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43432</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43437</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43452</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43453</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43455</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>43472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43472</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43476</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43488</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43488</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43488</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43488</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43495</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43517</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43522</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43524</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43544</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43544</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43544</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43544</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43551</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43557</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43563</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43565</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43580</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43584</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43587</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43595</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43606</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43619</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43621</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43626</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43641</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43643</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43644</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43649</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43662</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43662</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43662</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43663</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43703</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43707</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43740</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43742</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43754</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43754</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43754</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43868</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43885</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43885</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43893</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43903</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43907</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43907</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43917</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43928</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43928</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43957</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>43959</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43966</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43977</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43977</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43985</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43994</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>44005</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>44012</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>44025</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44039</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>44041</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>44112</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         <v>44112</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6440,7 +6440,7 @@
         <v>44112</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>44117</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>44130</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>44137</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>44138</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>44154</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>44161</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44175</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>44186</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>44186</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>44200</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>44217</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>44224</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>44225</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>44225</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44245</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44250</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>44251</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>44257</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>44274</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>44279</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>44279</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44279</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>44285</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>44355</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44364</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44378</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44383</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>44390</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44390</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>44390</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>44390</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>44390</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44392</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44393</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>44414</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44425</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>44425</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>44427</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>44461</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>44462</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>44467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>44482</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44487</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44502</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>44502</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>44509</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44510</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44537</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>44539</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44539</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44543</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44578</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44600</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44613</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44613</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44617</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44645</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>44645</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>44649</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>44693</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>44726</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>44740</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>44748</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>44767</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>44768</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44783</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>44783</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44791</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44819</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44831</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44841</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44869</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>44869</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44873</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44874</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44936</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44942</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44945</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44970</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44970</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44973</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>44979</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44981</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>44981</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>44981</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>44981</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44992</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44992</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44994</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44994</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44997</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>45008</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>45014</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>45021</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>45027</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>45028</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>45029</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>45035</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>45036</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>45042</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>45043</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>45043</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>45062</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>45062</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>45062</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>45062</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>45062</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>45063</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>45065</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>45078</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>45078</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>45091</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>45091</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>45096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>45097</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>45099</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>45103</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>45103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45103</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>45112</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>45113</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>45113</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>45113</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>45119</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>45131</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>45134</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>45149</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>45149</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>45160</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>45161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>45184</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>45188</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>45202</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>45202</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>45204</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
